--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdRuleCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdRuleCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5373B5-7069-4912-A3D7-B3A8F6732778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F3CC42-3184-4E94-ACB7-452E88BA1993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="600" windowWidth="22752" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -194,12 +194,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>管制生效日</t>
-  </si>
-  <si>
-    <t>管制取消日</t>
-  </si>
-  <si>
     <t>是否啟用</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -208,9 +202,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>規定管制項目中文</t>
-  </si>
-  <si>
     <t>RuleCodeItem</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -236,10 +227,6 @@
   </si>
   <si>
     <t>EnableMark</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuleCode,RuleStDate</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -247,15 +234,30 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>RuleCode =   ,AND RuleStDate =</t>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimald</t>
+  </si>
+  <si>
+    <t>規定管制項目中文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>管制生效日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>管制取消日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleStDate</t>
+  </si>
+  <si>
+    <t>RuleStDate &gt;=</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decimald</t>
   </si>
 </sst>
 </file>
@@ -482,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,9 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -898,7 +897,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -946,7 +945,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="18"/>
@@ -970,7 +969,7 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="18"/>
@@ -1027,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>31</v>
@@ -1036,7 +1035,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -1046,13 +1045,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E10" s="25">
         <v>30</v>
@@ -1065,13 +1064,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" s="25">
         <v>30</v>
@@ -1084,13 +1083,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E12" s="25">
         <v>8</v>
@@ -1103,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="E13" s="25">
         <v>8</v>
@@ -1122,10 +1121,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>28</v>
@@ -1141,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>11</v>
@@ -1311,7 +1310,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1335,10 +1334,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdRuleCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdRuleCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F3CC42-3184-4E94-ACB7-452E88BA1993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A05DA6F-FB1D-4150-B410-16D8CEAA3409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="600" windowWidth="22752" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   <si>
     <t>RuleStDate &gt;=</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -913,14 +913,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>30</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="19"/>
@@ -930,10 +930,10 @@
       <c r="A2" s="26"/>
       <c r="B2" s="28"/>
       <c r="C2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -941,11 +941,11 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="18"/>
@@ -954,7 +954,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="23"/>
@@ -965,11 +965,11 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="18"/>
@@ -978,7 +978,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="23"/>
@@ -989,7 +989,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="23"/>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>3</v>
@@ -1026,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="25">
         <v>5</v>
@@ -1045,13 +1045,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="25">
         <v>30</v>
@@ -1064,13 +1064,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="25">
         <v>30</v>
@@ -1083,13 +1083,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="25">
         <v>8</v>
@@ -1102,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="25">
         <v>8</v>
@@ -1121,13 +1121,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="25">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
@@ -1159,10 +1159,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>14</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>9</v>
@@ -1180,13 +1180,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>16</v>
-      </c>
       <c r="D17" s="25" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
@@ -1199,10 +1199,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>17</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>18</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>9</v>
@@ -1334,13 +1334,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
